--- a/00-course-info/W2026/_class-planning-F26.xlsx
+++ b/00-course-info/W2026/_class-planning-F26.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10201"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cpslo-my.sharepoint.com/personal/erobin17_calpoly_edu/Documents/stat323-calpoly/00-course-info/W2026/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="319" documentId="13_ncr:1_{3E3E1360-79E0-49B8-888E-E9DF4B34EF0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A932BF5A-B3DE-4B62-8AE1-495E6C410A78}"/>
+  <xr:revisionPtr revIDLastSave="410" documentId="13_ncr:1_{3E3E1360-79E0-49B8-888E-E9DF4B34EF0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7CBEE4A5-1070-DE4E-849C-D8C66B1B20A7}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="30240" windowHeight="18980" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S2025" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="166">
   <si>
     <t>Week</t>
   </si>
@@ -406,9 +406,6 @@
     <t>Syllabus + Canvas Scavenger Hunt by Monday 1/13</t>
   </si>
   <si>
-    <t>Submit to Canvas by 1/15</t>
-  </si>
-  <si>
     <t>Lab 2: Design + Conduct a CRD</t>
   </si>
   <si>
@@ -433,15 +430,6 @@
     <t>Lecture Video: Analyzing a Factorial</t>
   </si>
   <si>
-    <t>Activity 4.1: Pig Lysine?</t>
-  </si>
-  <si>
-    <t>Submit to Canvas by 1/29</t>
-  </si>
-  <si>
-    <t>Submit to Canvas by 2/12</t>
-  </si>
-  <si>
     <t>Activity 3.1: What Affects Power</t>
   </si>
   <si>
@@ -463,9 +451,6 @@
     <t>Lab 3: Design + Conduct a Factorial (3-way) + Subsampling</t>
   </si>
   <si>
-    <t>Activity 5.1: xxxx</t>
-  </si>
-  <si>
     <t>Activity 6.1: xxxx</t>
   </si>
   <si>
@@ -502,9 +487,6 @@
     <t>Final project presentations</t>
   </si>
   <si>
-    <t>Work on final projects</t>
-  </si>
-  <si>
     <t>Mod 8: When assumptions are violated</t>
   </si>
   <si>
@@ -517,22 +499,55 @@
     <t>Lecture Video: Non-parametric Methods</t>
   </si>
   <si>
-    <t>Lab 4: RCBD + Mixed Models</t>
-  </si>
-  <si>
-    <t>Introduce Final Projects</t>
-  </si>
-  <si>
-    <t>Proposals due Tuesday 3/3</t>
-  </si>
-  <si>
     <t>Lecture Video: 3-way factorial</t>
   </si>
   <si>
     <t>Request common final for Tuesday 3/17</t>
   </si>
   <si>
-    <t>Submit to Canvas by 2/26</t>
+    <t>Big lab workday</t>
+  </si>
+  <si>
+    <t>Submit to Canvas by 2/21</t>
+  </si>
+  <si>
+    <t>Activity 4.2: Pig LysinexProtein</t>
+  </si>
+  <si>
+    <t>Activity 4.1: Cookie Contrasts</t>
+  </si>
+  <si>
+    <t>Submit to Canvas by 2/6</t>
+  </si>
+  <si>
+    <t>Submit to Canvas by 1/22</t>
+  </si>
+  <si>
+    <t>Activity 5.1: Advertising Strategies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        </t>
+  </si>
+  <si>
+    <t>Big lab workday?</t>
+  </si>
+  <si>
+    <t>*No class!</t>
+  </si>
+  <si>
+    <t>Submit to Canvas by 3/6</t>
+  </si>
+  <si>
+    <t>Workday -- lab 4 + final projects</t>
+  </si>
+  <si>
+    <t>Introduce Lab 4: RCBD + Mixed Models</t>
+  </si>
+  <si>
+    <t>Introduce Final Project</t>
+  </si>
+  <si>
+    <t>Proposals due to Canvas by 3/7</t>
   </si>
 </sst>
 </file>
@@ -688,10 +703,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -963,17 +974,17 @@
       <selection activeCell="D2" sqref="D2:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23" style="5" customWidth="1"/>
     <col min="2" max="3" width="14.33203125" customWidth="1"/>
-    <col min="4" max="4" width="87.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="87.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="54.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.88671875" customWidth="1"/>
+    <col min="7" max="7" width="33.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -996,7 +1007,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -1019,7 +1030,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E3" t="s">
         <v>32</v>
       </c>
@@ -1027,7 +1038,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -1041,13 +1052,13 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
       <c r="F5" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
@@ -1067,7 +1078,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G7" t="s">
         <v>38</v>
       </c>
@@ -1075,7 +1086,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>3</v>
       </c>
@@ -1092,7 +1103,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="G9" s="3" t="s">
         <v>55</v>
@@ -1104,7 +1115,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>20</v>
       </c>
@@ -1118,7 +1129,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>3</v>
       </c>
@@ -1135,7 +1146,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
       <c r="G13" s="3" t="s">
         <v>45</v>
@@ -1144,7 +1155,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>21</v>
       </c>
@@ -1161,12 +1172,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G15" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>3</v>
       </c>
@@ -1183,10 +1194,10 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>22</v>
       </c>
@@ -1203,12 +1214,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G19" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>3</v>
       </c>
@@ -1225,13 +1236,13 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6"/>
       <c r="G21" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>23</v>
       </c>
@@ -1248,7 +1259,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>3</v>
       </c>
@@ -1262,10 +1273,10 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>24</v>
       </c>
@@ -1279,7 +1290,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>3</v>
       </c>
@@ -1296,10 +1307,10 @@
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>8</v>
       </c>
@@ -1313,7 +1324,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>3</v>
       </c>
@@ -1324,11 +1335,11 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="6"/>
       <c r="D33" s="8"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <v>9</v>
       </c>
@@ -1342,10 +1353,10 @@
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D35" s="7"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>3</v>
       </c>
@@ -1359,11 +1370,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="6"/>
       <c r="D37" s="8"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
         <v>10</v>
       </c>
@@ -1377,13 +1388,13 @@
         <v>63</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D39" s="7"/>
       <c r="F39" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="40" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="6"/>
       <c r="B40" s="3" t="s">
         <v>3</v>
@@ -1395,7 +1406,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
         <v>27</v>
       </c>
@@ -1410,7 +1421,7 @@
       </c>
       <c r="E41" s="1"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>3</v>
       </c>
@@ -1435,17 +1446,17 @@
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="87.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="51.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="87.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="51.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="15" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" s="15" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -1465,7 +1476,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1485,13 +1496,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="15" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" s="15" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D3" s="16"/>
       <c r="E3" s="15" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1508,13 +1519,13 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D5" s="7"/>
       <c r="E5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1531,8 +1542,8 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="15" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" s="15" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2</v>
       </c>
@@ -1546,7 +1557,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2</v>
       </c>
@@ -1560,8 +1571,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="15" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" s="15" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>3</v>
       </c>
@@ -1575,7 +1586,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>3</v>
       </c>
@@ -1592,12 +1603,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="15" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" s="15" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E15" s="13" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>4</v>
       </c>
@@ -1611,10 +1622,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D17" s="7"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>4</v>
       </c>
@@ -1628,8 +1639,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="15" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" s="15" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>5</v>
       </c>
@@ -1643,7 +1654,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>5</v>
       </c>
@@ -1660,8 +1671,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="15" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" s="15" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>6</v>
       </c>
@@ -1675,10 +1686,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D25" s="7"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>6</v>
       </c>
@@ -1695,8 +1706,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="15" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" s="15" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>7</v>
       </c>
@@ -1710,13 +1721,13 @@
         <v>87</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D29" s="7"/>
       <c r="E29" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>7</v>
       </c>
@@ -1733,8 +1744,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="15" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="32" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" s="15" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="17">
         <v>8</v>
       </c>
@@ -1745,8 +1756,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>8</v>
       </c>
@@ -1760,8 +1771,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="35" spans="1:5" s="15" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" s="15" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>9</v>
       </c>
@@ -1778,7 +1789,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>9</v>
       </c>
@@ -1795,10 +1806,10 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="15" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" s="15" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E39" s="13"/>
     </row>
-    <row r="40" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="17" t="s">
         <v>73</v>
       </c>
@@ -1809,8 +1820,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="41" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="42" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="17" t="s">
         <v>73</v>
       </c>
@@ -1821,8 +1832,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="43" spans="1:5" s="20" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" s="20" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>10</v>
       </c>
@@ -1839,7 +1850,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>10</v>
       </c>
@@ -1851,8 +1862,8 @@
       </c>
       <c r="D46" s="7"/>
     </row>
-    <row r="47" spans="1:5" s="15" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="48" spans="1:5" s="15" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" s="15" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:5" s="15" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="15" t="s">
         <v>75</v>
       </c>
@@ -1875,21 +1886,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D77D8F7-E8A1-4EAA-A367-39D8434D5192}">
-  <dimension ref="A1:G62"/>
+  <dimension ref="A1:G67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="40.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.77734375" customWidth="1"/>
-    <col min="6" max="6" width="57.5546875" customWidth="1"/>
-    <col min="7" max="7" width="28.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.83203125" customWidth="1"/>
+    <col min="6" max="6" width="57.5" customWidth="1"/>
+    <col min="7" max="7" width="28.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="22" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="22" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
@@ -1912,7 +1923,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1935,12 +1946,12 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F4" s="3" t="s">
         <v>100</v>
       </c>
@@ -1948,7 +1959,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1968,19 +1979,19 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E6" s="7"/>
       <c r="F6" t="s">
         <v>103</v>
       </c>
       <c r="G6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="15" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="15" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E7" s="16"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2</v>
       </c>
@@ -1997,10 +2008,10 @@
         <v>105</v>
       </c>
       <c r="F8" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E9" t="s">
         <v>106</v>
       </c>
@@ -2008,12 +2019,12 @@
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E10" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2</v>
       </c>
@@ -2033,26 +2044,20 @@
         <v>112</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E12" t="s">
         <v>110</v>
       </c>
       <c r="F12" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="15" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="15" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E13" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="F13" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="G13" s="15" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="17">
         <v>3</v>
       </c>
@@ -2063,12 +2068,12 @@
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="19"/>
       <c r="B15" s="19"/>
     </row>
-    <row r="16" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>3</v>
       </c>
@@ -2085,16 +2090,23 @@
         <v>114</v>
       </c>
       <c r="F17" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F18" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" s="15" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="15" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F19" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>4</v>
       </c>
@@ -2105,26 +2117,17 @@
         <v>2</v>
       </c>
       <c r="D20" t="s">
+        <v>122</v>
+      </c>
+      <c r="E20" t="s">
         <v>123</v>
       </c>
-      <c r="E20" t="s">
-        <v>124</v>
-      </c>
       <c r="F20" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E21" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E22" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>4</v>
       </c>
@@ -2135,20 +2138,22 @@
         <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E23" t="s">
-        <v>158</v>
+        <v>124</v>
       </c>
       <c r="F23" t="s">
-        <v>136</v>
-      </c>
-      <c r="G23" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" s="15" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="26" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.3">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E24" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="15" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="26">
         <v>5</v>
       </c>
@@ -2159,12 +2164,12 @@
         <v>2</v>
       </c>
       <c r="D26" s="28" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>5</v>
       </c>
@@ -2175,26 +2180,25 @@
         <v>3</v>
       </c>
       <c r="D29" t="s">
+        <v>122</v>
+      </c>
+      <c r="E29" t="s">
+        <v>149</v>
+      </c>
+      <c r="F29" t="s">
         <v>132</v>
       </c>
-      <c r="E29" t="s">
-        <v>133</v>
-      </c>
-      <c r="F29" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E30" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" s="15" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E31" s="15" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G29" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F30" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="15" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>6</v>
       </c>
@@ -2205,14 +2209,26 @@
         <v>2</v>
       </c>
       <c r="D32" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E32" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+      <c r="F32" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E33" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E34" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>6</v>
       </c>
@@ -2223,28 +2239,17 @@
         <v>3</v>
       </c>
       <c r="D35" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="E35" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="F35" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E36" t="s">
-        <v>141</v>
-      </c>
-      <c r="F36" t="s">
-        <v>155</v>
-      </c>
-      <c r="G36" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" s="15" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" s="15" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>7</v>
       </c>
@@ -2255,46 +2260,57 @@
         <v>2</v>
       </c>
       <c r="D38" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E38" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+      <c r="F38" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41">
+      <c r="E39" t="s">
+        <v>136</v>
+      </c>
+      <c r="F39" t="s">
+        <v>163</v>
+      </c>
+      <c r="G39" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="17">
         <v>7</v>
       </c>
-      <c r="B41" s="9">
+      <c r="B41" s="18">
         <v>46072</v>
       </c>
-      <c r="C41" t="s">
-        <v>3</v>
-      </c>
-      <c r="D41" t="s">
-        <v>144</v>
-      </c>
-      <c r="E41" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E42" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" s="15" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E43" s="15" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C41" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="E41" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="F41" s="17" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="17" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" s="20" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="26">
         <v>8</v>
       </c>
@@ -2305,12 +2321,12 @@
         <v>2</v>
       </c>
       <c r="D44" s="28" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="46" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>8</v>
       </c>
@@ -2321,29 +2337,30 @@
         <v>3</v>
       </c>
       <c r="D47" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="E47" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="F47" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="G47" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E48" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" s="15" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" s="15" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D49"/>
       <c r="E49" s="15" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>9</v>
       </c>
@@ -2354,11 +2371,23 @@
         <v>2</v>
       </c>
       <c r="D50" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+      <c r="E50" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E51" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E52" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>9</v>
       </c>
@@ -2369,11 +2398,11 @@
         <v>3</v>
       </c>
       <c r="D53" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" s="15" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" s="15" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>10</v>
       </c>
@@ -2384,11 +2413,11 @@
         <v>2</v>
       </c>
       <c r="D56" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>10</v>
       </c>
@@ -2399,16 +2428,21 @@
         <v>3</v>
       </c>
       <c r="D59" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" s="15" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="62" spans="1:5" s="15" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" s="15" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="1:5" s="15" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="13" t="s">
         <v>27</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>159</v>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="67" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D67" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>
